--- a/xlsx/FR/beef_FR.xlsx
+++ b/xlsx/FR/beef_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">The removal of subsidies for cattle farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A high tax on cattle products, so that the price of beef doubles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies on organic and local vegetables, fruits, and nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ban of intensive cattle farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.1593681017983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.229163322476936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0843677832827817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0925261628410912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.256087530889579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.26752426888538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.090329011015563</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.133132637332677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.30378139278262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.222540246841537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.270731035196264</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.197176578204802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.199618911676354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.1943414602239</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.346573979435765</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.307162708737426</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0811440628531477</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.086430701572247</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.207998191069626</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.270001912884004</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/beef_FR.xlsx
+++ b/xlsx/FR/beef_FR.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1593681017983</v>
+        <v>0.141998240149124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229163322476936</v>
+        <v>0.24012141865537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0843677832827817</v>
+        <v>0.0815996902393142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0925261628410912</v>
+        <v>0.0862031437073843</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256087530889579</v>
+        <v>0.268359387976299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26752426888538</v>
+        <v>0.248036128703891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.090329011015563</v>
+        <v>0.0964679728328932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.133132637332677</v>
+        <v>0.155661376406394</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.30378139278262</v>
+        <v>0.303537420846605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222540246841537</v>
+        <v>0.221864480703242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.270731035196264</v>
+        <v>0.290527459731296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197176578204802</v>
+        <v>0.197188776615379</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199618911676354</v>
+        <v>0.202181200280406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1943414602239</v>
+        <v>0.203581808242254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346573979435765</v>
+        <v>0.327937057742431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.307162708737426</v>
+        <v>0.284140656107631</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0811440628531477</v>
+        <v>0.0839237507475658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.086430701572247</v>
+        <v>0.0863961636952426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207998191069626</v>
+        <v>0.203467819454065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270001912884004</v>
+        <v>0.276806047163212</v>
       </c>
     </row>
   </sheetData>
